--- a/Data_science_outputs/Graphs/Third/2/Montlhy_consumption_3.xlsx
+++ b/Data_science_outputs/Graphs/Third/2/Montlhy_consumption_3.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9766.096250200007</v>
+        <v>7272.422255400007</v>
       </c>
       <c r="C2" t="n">
         <v>5769.48891873334</v>
       </c>
       <c r="D2" t="n">
-        <v>2891.714731366666</v>
+        <v>353.5872912166667</v>
       </c>
       <c r="E2" t="n">
         <v>914.0054253166667</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9169.239485316673</v>
+        <v>6760.700009166674</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2722.312959833333</v>
+        <v>328.8478758333333</v>
       </c>
       <c r="E3" t="n">
         <v>863.2742044666667</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9789.372459183342</v>
+        <v>7236.999968266674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2898.214753483333</v>
+        <v>349.7912609333333</v>
       </c>
       <c r="E4" t="n">
         <v>922.1916717333334</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9512.325642566673</v>
+        <v>7006.445791766673</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2806.073517483333</v>
+        <v>331.3696418</v>
       </c>
       <c r="E5" t="n">
         <v>873.19816395</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9761.266876700009</v>
+        <v>7266.316580000007</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2899.3816235</v>
+        <v>353.7159776</v>
       </c>
       <c r="E6" t="n">
         <v>946.1214570333333</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9474.944025333341</v>
+        <v>6990.85414203334</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2797.966348183334</v>
+        <v>334.4684250833333</v>
       </c>
       <c r="E7" t="n">
         <v>888.71974565</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9794.619435883342</v>
+        <v>7238.452864566674</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2920.224256833333</v>
+        <v>347.1777969333334</v>
       </c>
       <c r="E8" t="n">
         <v>917.92159775</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9750.051353550007</v>
+        <v>7266.884610816674</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2907.628626933333</v>
+        <v>355.2152107833333</v>
       </c>
       <c r="E9" t="n">
         <v>901.6114498166667</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9453.862332016675</v>
+        <v>6977.038504816675</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2814.574502766667</v>
+        <v>344.4895291833333</v>
       </c>
       <c r="E10" t="n">
         <v>893.2824570166666</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9783.180798600008</v>
+        <v>7246.483091233341</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2903.882542466667</v>
+        <v>350.16805895</v>
       </c>
       <c r="E11" t="n">
         <v>941.3962422166667</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9441.274548983341</v>
+        <v>6999.71887263334</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2812.50553455</v>
+        <v>341.6009272833333</v>
       </c>
       <c r="E12" t="n">
         <v>882.2797698333333</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9489.06097203334</v>
+        <v>6964.543750066674</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2811.539198616666</v>
+        <v>329.9399408166667</v>
       </c>
       <c r="E13" t="n">
         <v>868.8206530166667</v>
